--- a/Trading/wind/Data/stocks.xlsx
+++ b/Trading/wind/Data/stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gulmohar\Trading\wind\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E4B4A0-EC9F-45F7-9100-61584ACC115A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BAEFC8-4270-496B-B800-CB783F445BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18180" yWindow="1335" windowWidth="28770" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,134 +20,26 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>300450.SZ</t>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
+    <t>600036.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000001.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>300638.SZ</t>
-  </si>
-  <si>
-    <t>688159.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002216.SZ</t>
-  </si>
-  <si>
-    <t>000895.SZ</t>
-  </si>
-  <si>
-    <t>600741.SH</t>
-  </si>
-  <si>
-    <t>600699.SH</t>
-  </si>
-  <si>
-    <t>600660.SH</t>
-  </si>
-  <si>
-    <t>600068.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>002402.SZ</t>
-  </si>
-  <si>
-    <t>002475.SZ</t>
-  </si>
-  <si>
-    <t>002139.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>603816.SH</t>
-  </si>
-  <si>
-    <t>6098.HK</t>
-  </si>
-  <si>
-    <t>3990.HK</t>
-  </si>
-  <si>
-    <t>3888.HK</t>
-  </si>
-  <si>
-    <t>9988.HK</t>
-  </si>
-  <si>
-    <t>0700.HK</t>
-  </si>
-  <si>
-    <t>3690.HK</t>
-  </si>
-  <si>
-    <t>2382.HK</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>002142.SZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,207 +365,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Trading/wind/Data/stocks.xlsx
+++ b/Trading/wind/Data/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gulmohar\Trading\wind\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BAEFC8-4270-496B-B800-CB783F445BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B36B39-9E97-4F1F-B9CF-B70B1378EF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="1335" windowWidth="28770" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1080" windowWidth="23190" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600036.SH</t>
+    <t>600031.SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000001.SZ</t>
+    <t>603338.SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002142.SZ</t>
+    <t>601100.SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
